--- a/Process Results/Unified_Claims_Liability_Report_2025-05.xlsx
+++ b/Process Results/Unified_Claims_Liability_Report_2025-05.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMoretti\OneDrive - ARM\Documents\GitHub\DMI_IBNP\Process Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://actrisk-my.sharepoint.com/personal/sofia_moretti_actrisk_com/Documents/Documents/GitHub/DMI_IBNP_v2/Process Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A434581-9810-4B99-A2FA-0E9C7D02B64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{0A434581-9810-4B99-A2FA-0E9C7D02B64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B91837D-AEF9-4F19-9AD4-C97B25D10344}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9B94C235-4B85-4887-832D-FBC296CFB081}"/>
   </bookViews>
@@ -17,17 +17,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
-    <externalReference r:id="rId12"/>
-    <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -96,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Company_Code</t>
   </si>
@@ -206,13 +195,10 @@
     <t>TY 2024</t>
   </si>
   <si>
-    <t>Claims Liability Reserves - Apr 2025</t>
-  </si>
-  <si>
-    <t>* Claims are not fully uploaded for this block. These are March numbers</t>
-  </si>
-  <si>
-    <t>* We don’t yet have premium data for this block. These are March numbers</t>
+    <t>* We don’t yet have premium data for this block. These are May numbers</t>
+  </si>
+  <si>
+    <t>Claims Liability Reserves - Jun 2025</t>
   </si>
 </sst>
 </file>
@@ -270,7 +256,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,18 +278,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,7 +314,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -365,15 +339,12 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -400,161 +371,112 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Completion Factors"/>
-      <sheetName val="Plot Patterns"/>
-      <sheetName val="Summary"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="33">
-          <cell r="H33">
-            <v>6819.6606046780089</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Completion Factors"/>
-      <sheetName val="Plot Patterns"/>
-      <sheetName val="Summary"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="33">
-          <cell r="H33">
-            <v>8038.5832069200278</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Completion Factors"/>
-      <sheetName val="Plot Patterns"/>
-      <sheetName val="Summary"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="33">
-          <cell r="H33">
-            <v>160017.84869688915</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Completion Factors"/>
-      <sheetName val="Plot Patterns"/>
-      <sheetName val="Summary"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="33">
-          <cell r="H33">
-            <v>104358.8845024562</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
       <sheetName val="Summary"/>
       <sheetName val="XCH Allocation"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2">
+            <v>23491.995563699245</v>
+          </cell>
+        </row>
         <row r="3">
           <cell r="B3">
-            <v>1891.6515663455048</v>
+            <v>2723.1403435339134</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>66316.741576809363</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>242843.95758610716</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>45647.363297129654</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>52737.937858006539</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>77313.679947327677</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>98752.846041394805</v>
+            <v>96419.205398414633</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>66036.514801389232</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>198763.94594252511</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>7794.7526975402152</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>21148.367656214825</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>102492.40337272087</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15">
-            <v>33631.555074797754</v>
+            <v>37312.660864339989</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16">
-            <v>290107.76076621248</v>
+            <v>49779.154849274884</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="4">
           <cell r="C4">
-            <v>-2.671487169057732E-3</v>
+            <v>0</v>
           </cell>
           <cell r="D4">
-            <v>-2.2262393075481103E-3</v>
+            <v>0</v>
           </cell>
           <cell r="E4">
-            <v>1.7922857673679862</v>
+            <v>0</v>
           </cell>
           <cell r="F4">
-            <v>6422.6958842002614</v>
+            <v>0</v>
           </cell>
           <cell r="G4">
-            <v>105509.02285811254</v>
+            <v>0</v>
           </cell>
           <cell r="H4">
-            <v>4773.3096471743111</v>
+            <v>0</v>
           </cell>
           <cell r="I4">
-            <v>9.7615252036797138</v>
+            <v>0</v>
           </cell>
           <cell r="J4">
-            <v>77.610011878868875</v>
+            <v>0</v>
           </cell>
           <cell r="K4">
             <v>0</v>
@@ -564,192 +486,6 @@
           </cell>
           <cell r="M4">
             <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Completion Factors"/>
-      <sheetName val="Plot Patterns"/>
-      <sheetName val="Summary"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="33">
-          <cell r="H33">
-            <v>37695.16915278833</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Completion Factors"/>
-      <sheetName val="Plot Patterns"/>
-      <sheetName val="Summary"/>
-      <sheetName val="Summary - vol all BF"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3">
-        <row r="33">
-          <cell r="H33">
-            <v>261411.10482706933</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Completion Factors"/>
-      <sheetName val="Plot Patterns"/>
-      <sheetName val="Summary"/>
-      <sheetName val="Summary - BF"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3">
-        <row r="33">
-          <cell r="H33">
-            <v>42793.317773003218</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Completion Factors"/>
-      <sheetName val="Plot Patterns"/>
-      <sheetName val="Summary"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="33">
-          <cell r="H33">
-            <v>55479.008808480314</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Completion Factors"/>
-      <sheetName val="Plot Patterns"/>
-      <sheetName val="Summary"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="33">
-          <cell r="H33">
-            <v>85842.862185714243</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Completion Factors"/>
-      <sheetName val="Plot Patterns"/>
-      <sheetName val="Summary"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="33">
-          <cell r="H33">
-            <v>68560.459281530522</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Completion Factors"/>
-      <sheetName val="Plot Patterns"/>
-      <sheetName val="Summary"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="33">
-          <cell r="H33">
-            <v>172951.22963087389</v>
           </cell>
         </row>
       </sheetData>
@@ -1092,7 +828,7 @@
   <dimension ref="A2:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1111,16 +847,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="A2" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1150,75 +886,67 @@
         <v>5</v>
       </c>
       <c r="B5" s="8">
-        <f>+[1]Summary!$H$33</f>
-        <v>6819.6606046780089</v>
+        <f>+[1]Summary!B2</f>
+        <v>23491.995563699245</v>
       </c>
       <c r="C5" s="8">
         <f t="shared" ref="C5:C19" si="0">+B5*$C$22</f>
-        <v>340.98303023390048</v>
+        <v>1174.5997781849624</v>
       </c>
       <c r="D5" s="4">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E5" s="7">
         <f>+B5*D5</f>
-        <v>511.47454535085063</v>
+        <v>1761.8996672774433</v>
       </c>
       <c r="F5" s="7">
         <f>+B5+C5+E5</f>
-        <v>7672.1181802627598</v>
+        <v>26428.495009161652</v>
       </c>
       <c r="H5" s="13">
-        <v>45748</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>45833</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="22">
-        <f>+[2]Summary!$B$3</f>
-        <v>1891.6515663455048</v>
+        <f>+[1]Summary!B3</f>
+        <v>2723.1403435339134</v>
       </c>
       <c r="C6" s="22">
         <f t="shared" si="0"/>
-        <v>94.582578317275249</v>
+        <v>136.15701717669569</v>
       </c>
       <c r="D6" s="23">
         <f>+D5</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="18">
         <f t="shared" ref="E6:E19" si="1">+B6*D6</f>
-        <v>141.87386747591285</v>
-      </c>
-      <c r="F6" s="24">
+        <v>204.23552576504349</v>
+      </c>
+      <c r="F6" s="18">
         <f t="shared" ref="F6:F19" si="2">+B6+C6+E6</f>
-        <v>2128.1080121386926</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="25">
-        <v>45717</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
+        <v>3063.5328864756525</v>
+      </c>
+      <c r="H6" s="13">
+        <v>45833</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="8">
-        <f>+[3]Summary!$H$33</f>
-        <v>37695.16915278833</v>
+        <f>+[1]Summary!B4</f>
+        <v>66316.741576809363</v>
       </c>
       <c r="C7" s="8">
         <f t="shared" si="0"/>
-        <v>1884.7584576394165</v>
+        <v>3315.8370788404682</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" ref="D7:D13" si="3">+D6</f>
@@ -1226,70 +954,70 @@
       </c>
       <c r="E7" s="7">
         <f t="shared" si="1"/>
-        <v>2827.1376864591248</v>
+        <v>4973.7556182607022</v>
       </c>
       <c r="F7" s="7">
         <f t="shared" si="2"/>
-        <v>42407.065296886867</v>
+        <v>74606.334273910543</v>
       </c>
       <c r="H7" s="13">
-        <v>45748</v>
+        <v>45833</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="20" t="e">
-        <f>+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C8" s="8" t="e">
+      <c r="B8" s="8">
+        <f>+[1]Summary!B5</f>
+        <v>242843.95758610716</v>
+      </c>
+      <c r="C8" s="8">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>12142.197879305359</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="3"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="E8" s="7" t="e">
+      <c r="E8" s="7">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F8" s="7" t="e">
+        <v>18213.296818958035</v>
+      </c>
+      <c r="F8" s="7">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>273199.45228437055</v>
       </c>
       <c r="H8" s="13">
-        <v>45748</v>
+        <v>45833</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="20" t="e">
-        <f>+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C9" s="8" t="e">
+      <c r="B9" s="8">
+        <f>+[1]Summary!B6</f>
+        <v>45647.363297129654</v>
+      </c>
+      <c r="C9" s="8">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>2282.368164856483</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="3"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="E9" s="7" t="e">
+      <c r="E9" s="7">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F9" s="7" t="e">
+        <v>3423.5522472847238</v>
+      </c>
+      <c r="F9" s="7">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>51353.283709270858</v>
       </c>
       <c r="H9" s="13">
-        <v>45748</v>
+        <v>45833</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1297,12 +1025,12 @@
         <v>9</v>
       </c>
       <c r="B10" s="8">
-        <f>+[6]Summary!$H$33</f>
-        <v>55479.008808480314</v>
+        <f>+[1]Summary!B7</f>
+        <v>52737.937858006539</v>
       </c>
       <c r="C10" s="8">
         <f t="shared" si="0"/>
-        <v>2773.9504404240161</v>
+        <v>2636.8968929003272</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="3"/>
@@ -1310,14 +1038,14 @@
       </c>
       <c r="E10" s="7">
         <f t="shared" si="1"/>
-        <v>4160.9256606360232</v>
+        <v>3955.3453393504901</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" si="2"/>
-        <v>62413.884909540349</v>
+        <v>59330.180090257352</v>
       </c>
       <c r="H10" s="13">
-        <v>45748</v>
+        <v>45833</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1325,12 +1053,12 @@
         <v>10</v>
       </c>
       <c r="B11" s="8">
-        <f>+[7]Summary!$H$33</f>
-        <v>85842.862185714243</v>
+        <f>+[1]Summary!B8</f>
+        <v>77313.679947327677</v>
       </c>
       <c r="C11" s="8">
         <f t="shared" si="0"/>
-        <v>4292.1431092857119</v>
+        <v>3865.6839973663841</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="3"/>
@@ -1338,14 +1066,14 @@
       </c>
       <c r="E11" s="7">
         <f t="shared" si="1"/>
-        <v>6438.2146639285684</v>
+        <v>5798.525996049576</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" si="2"/>
-        <v>96573.219958928516</v>
+        <v>86977.88994074364</v>
       </c>
       <c r="H11" s="13">
-        <v>45748</v>
+        <v>45833</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -1353,12 +1081,12 @@
         <v>11</v>
       </c>
       <c r="B12" s="10">
-        <f>+[2]Summary!$B$9</f>
-        <v>98752.846041394805</v>
+        <f>+[1]Summary!B9</f>
+        <v>96419.205398414633</v>
       </c>
       <c r="C12" s="10">
         <f t="shared" si="0"/>
-        <v>4937.6423020697403</v>
+        <v>4820.9602699207317</v>
       </c>
       <c r="D12" s="11">
         <f t="shared" si="3"/>
@@ -1366,18 +1094,18 @@
       </c>
       <c r="E12" s="12">
         <f t="shared" si="1"/>
-        <v>7406.4634531046104</v>
+        <v>7231.4404048810975</v>
       </c>
       <c r="F12" s="12">
         <f t="shared" si="2"/>
-        <v>111096.95179656916</v>
+        <v>108471.60607321646</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="19">
-        <v>45717</v>
+        <v>45778</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -1389,12 +1117,12 @@
         <v>12</v>
       </c>
       <c r="B13" s="8">
-        <f>+[8]Summary!$H$33</f>
-        <v>68560.459281530522</v>
+        <f>+[1]Summary!B10</f>
+        <v>66036.514801389232</v>
       </c>
       <c r="C13" s="8">
         <f t="shared" si="0"/>
-        <v>3428.0229640765265</v>
+        <v>3301.825740069462</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" si="3"/>
@@ -1402,14 +1130,14 @@
       </c>
       <c r="E13" s="18">
         <f t="shared" si="1"/>
-        <v>5142.0344461147888</v>
+        <v>4952.738610104192</v>
       </c>
       <c r="F13" s="18">
         <f t="shared" si="2"/>
-        <v>77130.516691721845</v>
+        <v>74291.079151562881</v>
       </c>
       <c r="H13" s="13">
-        <v>45748</v>
+        <v>45833</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -1417,30 +1145,30 @@
         <v>19</v>
       </c>
       <c r="B14" s="10">
-        <f>+[9]Summary!$H$33</f>
-        <v>172951.22963087389</v>
+        <f>+[1]Summary!B11</f>
+        <v>198763.94594252511</v>
       </c>
       <c r="C14" s="10">
         <f t="shared" si="0"/>
-        <v>8647.5614815436948</v>
+        <v>9938.1972971262567</v>
       </c>
       <c r="D14" s="11">
         <v>0.05</v>
       </c>
       <c r="E14" s="12">
         <f t="shared" si="1"/>
-        <v>8647.5614815436948</v>
+        <v>9938.1972971262567</v>
       </c>
       <c r="F14" s="12">
         <f t="shared" si="2"/>
-        <v>190246.35259396129</v>
+        <v>218640.34053677763</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="19">
-        <v>45717</v>
+        <v>45778</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -1452,30 +1180,30 @@
         <v>20</v>
       </c>
       <c r="B15" s="10">
-        <f>+[10]Summary!$H$33</f>
-        <v>8038.5832069200278</v>
+        <f>+[1]Summary!B12</f>
+        <v>7794.7526975402152</v>
       </c>
       <c r="C15" s="10">
         <f t="shared" si="0"/>
-        <v>401.92916034600142</v>
+        <v>389.73763487701081</v>
       </c>
       <c r="D15" s="11">
         <v>0.05</v>
       </c>
       <c r="E15" s="12">
         <f t="shared" si="1"/>
-        <v>401.92916034600142</v>
+        <v>389.73763487701081</v>
       </c>
       <c r="F15" s="12">
         <f t="shared" si="2"/>
-        <v>8842.4415276120289</v>
+        <v>8574.2279672942368</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="19">
-        <v>45717</v>
+        <v>45778</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -1487,12 +1215,12 @@
         <v>17</v>
       </c>
       <c r="B16" s="8">
-        <f>+[11]Summary!$H$33</f>
-        <v>160017.84869688915</v>
+        <f>+[1]Summary!B13</f>
+        <v>21148.367656214825</v>
       </c>
       <c r="C16" s="8">
         <f t="shared" si="0"/>
-        <v>8000.892434844458</v>
+        <v>1057.4183828107414</v>
       </c>
       <c r="D16" s="3">
         <f>+D5</f>
@@ -1500,14 +1228,14 @@
       </c>
       <c r="E16" s="18">
         <f t="shared" si="1"/>
-        <v>12001.338652266686</v>
+        <v>1586.1275742161117</v>
       </c>
       <c r="F16" s="18">
         <f t="shared" si="2"/>
-        <v>180020.07978400029</v>
+        <v>23791.913613241679</v>
       </c>
       <c r="H16" s="13">
-        <v>45748</v>
+        <v>45833</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1515,12 +1243,12 @@
         <v>18</v>
       </c>
       <c r="B17" s="8">
-        <f>+[12]Summary!$H$33</f>
-        <v>104358.8845024562</v>
+        <f>+[1]Summary!B14</f>
+        <v>102492.40337272087</v>
       </c>
       <c r="C17" s="8">
         <f t="shared" si="0"/>
-        <v>5217.9442251228102</v>
+        <v>5124.6201686360437</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" ref="D17:D19" si="4">+D6</f>
@@ -1528,63 +1256,55 @@
       </c>
       <c r="E17" s="18">
         <f t="shared" si="1"/>
-        <v>7826.9163376842153</v>
+        <v>7686.9302529540655</v>
       </c>
       <c r="F17" s="18">
         <f t="shared" si="2"/>
-        <v>117403.74506526323</v>
+        <v>115303.95379431098</v>
       </c>
       <c r="H17" s="13">
-        <v>45748</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+        <v>45833</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="22">
-        <f>+[2]Summary!$B$15</f>
-        <v>33631.555074797754</v>
+        <f>+[1]Summary!B15</f>
+        <v>37312.660864339989</v>
       </c>
       <c r="C18" s="22">
         <f t="shared" si="0"/>
-        <v>1681.5777537398878</v>
+        <v>1865.6330432169996</v>
       </c>
       <c r="D18" s="23">
         <f t="shared" si="4"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="18">
         <f t="shared" si="1"/>
-        <v>2522.3666306098316</v>
-      </c>
-      <c r="F18" s="24">
+        <v>2798.4495648254992</v>
+      </c>
+      <c r="F18" s="18">
         <f t="shared" si="2"/>
-        <v>37835.499459147475</v>
-      </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="25">
-        <v>45717</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
+        <v>41976.743472382484</v>
+      </c>
+      <c r="H18" s="13">
+        <v>45833</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="10">
-        <f>+[2]Summary!$B$16</f>
-        <v>290107.76076621248</v>
+        <f>+[1]Summary!B16</f>
+        <v>49779.154849274884</v>
       </c>
       <c r="C19" s="10">
         <f t="shared" si="0"/>
-        <v>14505.388038310624</v>
+        <v>2488.9577424637446</v>
       </c>
       <c r="D19" s="11">
         <f t="shared" si="4"/>
@@ -1592,18 +1312,18 @@
       </c>
       <c r="E19" s="12">
         <f t="shared" si="1"/>
-        <v>21758.082057465934</v>
+        <v>3733.436613695616</v>
       </c>
       <c r="F19" s="12">
         <f t="shared" si="2"/>
-        <v>326371.23086198902</v>
+        <v>56001.549205434247</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="19">
-        <v>45717</v>
+        <v>45778</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
@@ -1618,22 +1338,22 @@
       <c r="A21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="6" t="e">
+      <c r="B21" s="6">
         <f>+SUM(B5:B20)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C21" s="6" t="e">
+        <v>1090821.8217550332</v>
+      </c>
+      <c r="C21" s="6">
         <f>+SUM(C5:C20)</f>
-        <v>#REF!</v>
+        <v>54541.091087751673</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="6" t="e">
+      <c r="E21" s="6">
         <f>+SUM(E5:E20)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F21" s="6" t="e">
+        <v>76647.669165625877</v>
+      </c>
+      <c r="F21" s="6">
         <f>+SUM(F5:F20)</f>
-        <v>#REF!</v>
+        <v>1222010.5820084107</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -1686,52 +1406,52 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
-        <f>+'[2]XCH Allocation'!C4*(1+$D$19)+'[2]XCH Allocation'!C4*$C$22</f>
-        <v>-3.0054230651899486E-3</v>
+        <f>+'[1]XCH Allocation'!C4*(1+$D$19)+'[1]XCH Allocation'!C4*$C$22</f>
+        <v>0</v>
       </c>
       <c r="B26" s="7">
-        <f>+'[2]XCH Allocation'!D4*(1+$D$19)+'[2]XCH Allocation'!D4*$C$22</f>
-        <v>-2.5045192209916241E-3</v>
+        <f>+'[1]XCH Allocation'!D4*(1+$D$19)+'[1]XCH Allocation'!D4*$C$22</f>
+        <v>0</v>
       </c>
       <c r="C26" s="7">
-        <f>+'[2]XCH Allocation'!E4*(1+$D$19)+'[2]XCH Allocation'!E4*$C$22</f>
-        <v>2.0163214882889844</v>
+        <f>+'[1]XCH Allocation'!E4*(1+$D$19)+'[1]XCH Allocation'!E4*$C$22</f>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <f>+'[2]XCH Allocation'!F4*(1+$D$19)+'[2]XCH Allocation'!F4*$C$22</f>
-        <v>7225.5328697252935</v>
+        <f>+'[1]XCH Allocation'!F4*(1+$D$19)+'[1]XCH Allocation'!F4*$C$22</f>
+        <v>0</v>
       </c>
       <c r="E26" s="7">
-        <f>+'[2]XCH Allocation'!G4*(1+$D$19)+'[2]XCH Allocation'!G4*$C$22</f>
-        <v>118697.6507153766</v>
+        <f>+'[1]XCH Allocation'!G4*(1+$D$19)+'[1]XCH Allocation'!G4*$C$22</f>
+        <v>0</v>
       </c>
       <c r="F26" s="7">
-        <f>+'[2]XCH Allocation'!H4*(1+$D$19)+'[2]XCH Allocation'!H4*$C$22</f>
-        <v>5369.9733530711001</v>
+        <f>+'[1]XCH Allocation'!H4*(1+$D$19)+'[1]XCH Allocation'!H4*$C$22</f>
+        <v>0</v>
       </c>
       <c r="G26" s="7">
-        <f>+'[2]XCH Allocation'!I4*(1+$D$19)+'[2]XCH Allocation'!I4*$C$22</f>
-        <v>10.981715854139678</v>
+        <f>+'[1]XCH Allocation'!I4*(1+$D$19)+'[1]XCH Allocation'!I4*$C$22</f>
+        <v>0</v>
       </c>
       <c r="H26" s="7">
-        <f>+'[2]XCH Allocation'!J4*(1+$D$19)+'[2]XCH Allocation'!J4*$C$22</f>
-        <v>87.311263363727477</v>
+        <f>+'[1]XCH Allocation'!J4*(1+$D$19)+'[1]XCH Allocation'!J4*$C$22</f>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <f>+'[2]XCH Allocation'!K4*(1+$D$19)+'[2]XCH Allocation'!K4*$C$22</f>
+        <f>+'[1]XCH Allocation'!K4*(1+$D$19)+'[1]XCH Allocation'!K4*$C$22</f>
         <v>0</v>
       </c>
       <c r="J26" s="7">
-        <f>+'[2]XCH Allocation'!L4*(1+$D$19)+'[2]XCH Allocation'!L4*$C$22</f>
+        <f>+'[1]XCH Allocation'!L4*(1+$D$19)+'[1]XCH Allocation'!L4*$C$22</f>
         <v>0</v>
       </c>
       <c r="K26" s="7">
-        <f>+'[2]XCH Allocation'!M4*(1+$D$19)+'[2]XCH Allocation'!M4*$C$22</f>
+        <f>+'[1]XCH Allocation'!M4*(1+$D$19)+'[1]XCH Allocation'!M4*$C$22</f>
         <v>0</v>
       </c>
       <c r="L26" s="17">
         <f>+SUM(B26:K26)-F19</f>
-        <v>-194977.76712762911</v>
+        <v>-56001.549205434247</v>
       </c>
     </row>
   </sheetData>
